--- a/Data/FirstVerseTimes.xlsx
+++ b/Data/FirstVerseTimes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="60" windowWidth="20080" windowHeight="16960" tabRatio="500"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="25740" windowHeight="16960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
   <si>
     <t>Yes</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>01 Whatever U Want (feat. Kanye West &amp; John Legend).mp3</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -771,881 +774,1010 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3030</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>131</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D8" t="s">
         <v>93</v>
       </c>
-      <c r="D2">
+      <c r="E8">
         <v>29</v>
       </c>
-      <c r="E2">
+      <c r="F8">
         <v>166</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D14" t="s">
         <v>110</v>
       </c>
-      <c r="D3">
+      <c r="E14">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="F14">
         <v>65</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D16" t="s">
         <v>94</v>
       </c>
-      <c r="D4">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F16">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="D5">
+      <c r="E18">
         <v>24</v>
       </c>
-      <c r="E5">
+      <c r="F18">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23">
+        <v>52</v>
+      </c>
+      <c r="F23">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24">
+        <v>51</v>
+      </c>
+      <c r="F24">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30">
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31">
+        <v>26</v>
+      </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34">
+        <v>46</v>
+      </c>
+      <c r="F34">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <v>71</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>65</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D39" t="s">
         <v>107</v>
       </c>
-      <c r="D6">
+      <c r="E39">
         <v>46</v>
       </c>
-      <c r="E6">
+      <c r="F39">
         <v>87</v>
       </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C41" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D41" t="s">
         <v>108</v>
       </c>
-      <c r="D7">
+      <c r="E41">
         <v>26</v>
       </c>
-      <c r="E7">
+      <c r="F41">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C42" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="D9">
+      <c r="E42">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="F42">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>3030</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10">
-        <v>67</v>
-      </c>
-      <c r="E10">
-        <v>131</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>34</v>
-      </c>
-      <c r="E12">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>87</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>88</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>124</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26">
-        <v>52</v>
-      </c>
-      <c r="E26">
-        <v>104</v>
-      </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27">
-        <v>51</v>
-      </c>
-      <c r="E27">
-        <v>123</v>
-      </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28">
-        <v>14</v>
-      </c>
-      <c r="E28">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29">
-        <v>21</v>
-      </c>
-      <c r="E29">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31">
-        <v>34</v>
-      </c>
-      <c r="E31">
-        <v>80</v>
-      </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32">
-        <v>13</v>
-      </c>
-      <c r="E32">
-        <v>90</v>
-      </c>
-      <c r="F32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33">
-        <v>39</v>
-      </c>
-      <c r="E33">
-        <v>88</v>
-      </c>
-      <c r="F33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34">
-        <v>26</v>
-      </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35">
-        <v>20</v>
-      </c>
-      <c r="E35">
-        <v>59</v>
-      </c>
-      <c r="F35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
-      <c r="E36">
-        <v>60</v>
-      </c>
-      <c r="F36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37">
-        <v>46</v>
-      </c>
-      <c r="E37">
-        <v>70</v>
-      </c>
-      <c r="F37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38">
-        <v>31</v>
-      </c>
-      <c r="E38">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39">
-        <v>25</v>
-      </c>
-      <c r="E39">
-        <v>50</v>
-      </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40">
-        <v>15</v>
-      </c>
-      <c r="E40">
-        <v>65</v>
-      </c>
-      <c r="F40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>46</v>
-      </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:H42">
+    <sortCondition ref="B2:B42"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Data/FirstVerseTimes.xlsx
+++ b/Data/FirstVerseTimes.xlsx
@@ -777,7 +777,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -817,20 +817,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>3030</v>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -887,19 +887,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -910,19 +910,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
@@ -956,24 +956,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>166</v>
-      </c>
       <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -982,19 +979,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
         <v>0</v>
@@ -1005,19 +1002,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
@@ -1028,19 +1025,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
         <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11">
-        <v>46</v>
-      </c>
-      <c r="F11">
-        <v>87</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
@@ -1051,19 +1048,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
         <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>80</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
@@ -1074,19 +1071,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>0</v>
@@ -1097,24 +1094,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1123,19 +1117,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>0</v>
@@ -1145,25 +1139,22 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>74</v>
+      <c r="B16" s="1">
+        <v>3030</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1172,16 +1163,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>88</v>
@@ -1195,24 +1186,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E18">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1221,19 +1209,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -1244,19 +1232,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
         <v>0</v>
@@ -1267,19 +1255,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F21">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
         <v>0</v>
@@ -1290,19 +1278,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
         <v>0</v>
@@ -1313,19 +1301,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E23">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
         <v>0</v>
@@ -1336,19 +1324,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F24">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
         <v>0</v>
@@ -1359,19 +1347,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
         <v>0</v>
@@ -1382,19 +1370,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E26">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
         <v>0</v>
@@ -1405,19 +1393,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
         <v>0</v>
@@ -1428,19 +1416,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E28">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
         <v>0</v>
@@ -1451,21 +1439,24 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1474,19 +1465,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F30">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
         <v>0</v>
@@ -1497,19 +1488,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
         <v>0</v>
@@ -1520,21 +1511,24 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F32">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1543,21 +1537,24 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F33">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1566,21 +1563,24 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E34">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F34">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1589,19 +1589,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F35">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E36">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s">
         <v>0</v>
@@ -1635,19 +1635,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
         <v>0</v>
@@ -1658,21 +1658,24 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1681,24 +1684,21 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E39">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F39">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1707,21 +1707,24 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1730,24 +1733,21 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F41">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1756,19 +1756,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F42">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
   </sheetData>
   <sortState ref="B2:H42">
-    <sortCondition ref="B2:B42"/>
+    <sortCondition ref="C2:C42"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
